--- a/test_data/excel_sheet_data/test_data.xlsx
+++ b/test_data/excel_sheet_data/test_data.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16395" windowHeight="6540"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16080" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="registerTestData" sheetId="1" r:id="rId1"/>
+    <sheet name="loginTestData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
   <si>
     <t>First Name</t>
   </si>
@@ -51,6 +52,57 @@
   </si>
   <si>
     <t>aditya@123</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Prashant</t>
+  </si>
+  <si>
+    <t>prashantnarad45@gmail.com</t>
+  </si>
+  <si>
+    <t>prashant@123</t>
+  </si>
+  <si>
+    <t>Nilesh</t>
+  </si>
+  <si>
+    <t>Borse</t>
+  </si>
+  <si>
+    <t>nileshborse56@gmail.com</t>
+  </si>
+  <si>
+    <t>nilesh@123</t>
+  </si>
+  <si>
+    <t>Anant</t>
+  </si>
+  <si>
+    <t>Panchal</t>
+  </si>
+  <si>
+    <t>anantpanchal4@gmail.com</t>
+  </si>
+  <si>
+    <t>anant@123</t>
+  </si>
+  <si>
+    <t>Rushikesh</t>
+  </si>
+  <si>
+    <t>Shelar</t>
+  </si>
+  <si>
+    <t>rushikeshshelar23@gmail.com</t>
+  </si>
+  <si>
+    <t>rushikesh@123</t>
   </si>
 </sst>
 </file>
@@ -395,68 +447,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="D2" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="E4" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="E5" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId10"/>
+    <hyperlink ref="D7" r:id="rId11"/>
+    <hyperlink ref="E7" r:id="rId12"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test_data/excel_sheet_data/test_data.xlsx
+++ b/test_data/excel_sheet_data/test_data.xlsx
@@ -11,12 +11,11 @@
     <sheet name="loginTestData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:N20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
   <si>
     <t>First Name</t>
   </si>
@@ -103,6 +102,9 @@
   </si>
   <si>
     <t>rushikesh@123</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -450,7 +452,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,7 +482,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>

--- a/test_data/excel_sheet_data/test_data.xlsx
+++ b/test_data/excel_sheet_data/test_data.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16080" windowHeight="6540"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15030" windowHeight="6540"/>
   </bookViews>
   <sheets>
     <sheet name="registerTestData" sheetId="1" r:id="rId1"/>
     <sheet name="loginTestData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -452,7 +453,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
